--- a/data/trans_dic/P3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda unifamiliar independiente</t>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>67,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>68,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>65,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>65,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>61,57%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>66,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>65,24%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>60,22%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>57,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,71; 74,63</t>
+          <t>48,73; 83,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,91; 73,73</t>
+          <t>48,72; 82,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,87; 70,94</t>
+          <t>45,88; 81,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,56; 68,42</t>
+          <t>44,93; 79,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,4; 69,29</t>
+          <t>53,03; 83,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,04; 72,13</t>
+          <t>49,41; 78,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,33; 63,79</t>
+          <t>46,32; 76,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,9; 60,94</t>
+          <t>41,62; 72,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,17; 69,1</t>
+          <t>40,51; 69,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,71; 69,62</t>
+          <t>31,73; 62,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,14; 64,08</t>
+          <t>55,02; 76,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,62; 61,63</t>
+          <t>54,05; 75,29</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>49,49; 71,34</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>48,2; 70,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>45,73; 68,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>38,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35,08%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>35,43%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>36,02%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>34,54%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>35,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>35,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,41%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,67%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 45,34</t>
+          <t>15,58; 46,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,14; 49,09</t>
+          <t>17,02; 51,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,19; 54,17</t>
+          <t>18,66; 54,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,73; 53,8</t>
+          <t>20,45; 59,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,37; 47,85</t>
+          <t>13,45; 60,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,2; 47,83</t>
+          <t>24,95; 51,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,4; 46,01</t>
+          <t>25,27; 52,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,28; 46,35</t>
+          <t>23,63; 47,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,38; 42,55</t>
+          <t>23,08; 49,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,84; 44,8</t>
+          <t>29,35; 56,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,41; 46,37</t>
+          <t>23,1; 44,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,52; 45,76</t>
+          <t>24,31; 46,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24,79; 47,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 49,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>23,34; 53,85</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>62,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>58,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>58,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>50,36%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>47,32%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>48,78%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,81; 57,88</t>
+          <t>43,4; 70,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,99; 65,46</t>
+          <t>47,34; 72,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,08; 56,49</t>
+          <t>44,48; 70,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,71; 56,7</t>
+          <t>43,51; 69,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,21; 49,91</t>
+          <t>37,54; 64,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,1; 51,92</t>
+          <t>32,15; 51,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,95; 50,77</t>
+          <t>33,01; 52,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,52; 51,32</t>
+          <t>30,44; 49,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,89; 50,8</t>
+          <t>30,52; 49,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,36; 55,04</t>
+          <t>36,34; 56,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,29; 50,72</t>
+          <t>40,59; 56,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,08; 51,34</t>
+          <t>42,52; 57,8</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>39,96; 55,13</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>39,73; 55,53</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>40,45; 57,74</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55,2%</t>
+          <t>50,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>45,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45,16%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>44,56%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,84; 64,41</t>
+          <t>40,83; 61,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,98; 64,7</t>
+          <t>39,72; 60,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,52; 63,7</t>
+          <t>40,63; 61,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,08; 64,07</t>
+          <t>40,35; 61,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,51; 52,97</t>
+          <t>39,73; 61,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,0; 54,34</t>
+          <t>30,64; 50,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,37; 53,93</t>
+          <t>31,06; 50,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,41; 52,68</t>
+          <t>31,62; 51,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,2; 55,64</t>
+          <t>29,7; 49,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,24; 57,17</t>
+          <t>29,59; 49,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,32; 56,24</t>
+          <t>37,89; 52,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,27; 56,17</t>
+          <t>37,91; 52,35</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>38,57; 53,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>38,21; 53,12</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>37,08; 51,39</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,64%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>49,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>49,88%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>49,61%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>50,09%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>47,77%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,4; 60,26</t>
+          <t>35,45; 60,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,23; 62,2</t>
+          <t>35,78; 62,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,27; 63,28</t>
+          <t>35,65; 62,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44,39; 63,85</t>
+          <t>37,61; 64,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,78; 59,96</t>
+          <t>36,05; 60,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,3; 60,58</t>
+          <t>34,83; 62,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,56; 61,17</t>
+          <t>35,48; 63,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,26; 59,83</t>
+          <t>35,78; 63,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,2; 57,24</t>
+          <t>35,25; 63,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,59; 58,17</t>
+          <t>31,08; 60,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 59,65</t>
+          <t>38,56; 58,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,57; 59,26</t>
+          <t>39,54; 59,58</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>39,07; 59,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>39,94; 59,73</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>37,34; 56,87</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52,38%</t>
+          <t>57,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>44,94%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>45,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>46,92%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>47,94%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,86; 61,09</t>
+          <t>41,22; 72,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,26; 61,02</t>
+          <t>38,93; 69,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,65; 63,07</t>
+          <t>40,27; 71,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,73; 64,46</t>
+          <t>41,31; 71,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,87; 47,73</t>
+          <t>44,49; 75,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,95; 48,02</t>
+          <t>23,9; 54,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,46; 45,6</t>
+          <t>23,55; 53,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,04; 44,7</t>
+          <t>23,04; 53,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,45; 50,51</t>
+          <t>24,09; 54,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34,33; 50,85</t>
+          <t>23,95; 56,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,63; 49,55</t>
+          <t>36,56; 58,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,32; 48,65</t>
+          <t>35,22; 56,32</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>36,23; 57,96</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>37,15; 58,52</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>35,55; 59,64</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>47,79%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>47,48%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>44,74; 54,27</t>
+          <t>43,55; 56,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>46,03; 56,33</t>
+          <t>43,63; 57,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,73; 55,93</t>
+          <t>44,38; 58,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,62; 55,41</t>
+          <t>45,04; 59,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,5; 48,39</t>
+          <t>41,84; 57,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,5; 49,35</t>
+          <t>39,51; 49,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,27; 47,44</t>
+          <t>39,55; 49,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,36; 46,62</t>
+          <t>37,7; 47,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,25; 49,85</t>
+          <t>37,27; 47,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,23; 51,34</t>
+          <t>37,75; 48,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43,87; 50,39</t>
+          <t>43,42; 51,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,85; 49,88</t>
+          <t>43,6; 51,61</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>43,04; 51,29</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>43,4; 51,95</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>41,91; 51,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58469</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72962</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69109</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>82182</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>96544</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>77376</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>84279</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>69134</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68427</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68074</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>135844</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>157241</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>138243</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>150609</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>164618</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41965; 71999</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52139; 88086</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48499; 85626</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>57308; 101048</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>73800; 116813</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58094; 92119</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62070; 102330</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49982; 86843</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49640; 85632</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46172; 90506</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>112070; 155348</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>130278; 181466</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>111757; 161088</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>120528; 176537</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>130169; 196203</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>40337</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54330</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>52001</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>60222</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>76213</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>50502</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63870</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44453</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44755</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70730</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>90838</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>118200</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>96454</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>104977</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>146943</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21319; 63804</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>28721; 87054</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26756; 77957</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31549; 91721</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30628; 136790</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33260; 68530</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41720; 86467</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29936; 60390</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29152; 62443</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>47653; 91557</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>62410; 120184</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81157; 156396</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>66953; 127404</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>68641; 139134</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>91049; 210063</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81623</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>100589</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>78275</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>79912</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93660</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>91026</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>114001</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83516</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80088</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>110221</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>172649</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>214590</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>161791</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>160000</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>203880</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60648; 98004</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76724; 117557</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>59771; 94101</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59888; 95917</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>67667; 115797</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>69256; 111581</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>87173; 138611</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63731; 103008</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>61184; 98930</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86401; 134945</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>144133; 199881</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>181169; 246314</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>137356; 189483</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>134345; 187755</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>169096; 241347</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83583</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>93708</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>82351</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>79575</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>100567</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>77168</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89443</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76221</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>68843</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>83998</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>160751</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>183150</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>158572</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>148418</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>184565</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66755; 100987</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>74150; 113656</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>65504; 99557</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>63038; 95820</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>80017; 123661</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>58612; 95852</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>67820; 111065</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58796; 95329</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51225; 85964</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62956; 104667</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>134428; 185670</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>153563; 212070</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>133888; 185718</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>125574; 174582</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>153574; 212815</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>67047</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>77727</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>64973</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>62338</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>75318</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>50728</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>58751</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>47090</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>45799</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>64021</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>117775</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>136478</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>112063</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>108137</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>139338</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>49237; 83571</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>56329; 98390</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>47087; 82505</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46333; 78989</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>55758; 93242</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>36046; 64551</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41226; 73322</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33567; 59841</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32667; 58394</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>42601; 82276</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>93458; 140762</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>108178; 163025</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>88253; 133992</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>86209; 128934</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>108936; 165904</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>51483</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>59834</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>49340</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>51979</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>81293</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>40322</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>51141</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>39042</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>42215</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>84209</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>91805</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>110975</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>88381</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>94195</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>165501</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>37194; 65640</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42562; 75699</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>35166; 62663</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>37234; 64868</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>59816; 102131</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>25575; 58260</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>32411; 74050</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24220; 56712</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26646; 60529</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>50492; 118704</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>72109; 114934</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>86960; 139066</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>69723; 111551</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>74577; 117465</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>122752; 205922</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>382541</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>459150</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>396048</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>416208</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>523594</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>387122</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>461483</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>359455</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>350128</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>481253</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>769663</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>920634</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>755503</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>766336</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1004847</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>328941; 429421</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>388839; 515035</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>339111; 443144</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>355347; 470026</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>434108; 596983</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>342934; 430139</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>409481; 512588</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>317044; 400487</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>307480; 391803</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>417571; 541584</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>704774; 831261</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>840003; 994339</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>690814; 823357</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>700542; 838480</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>898518; 1096793</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>